--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -509,7 +509,11 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -517,7 +521,11 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -525,7 +533,11 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -540,23 +552,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -571,23 +603,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -602,23 +654,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -514,7 +514,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -526,7 +530,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -538,7 +546,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
@@ -557,7 +569,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -565,7 +581,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -573,7 +593,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -581,7 +605,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -589,7 +617,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -608,7 +640,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
@@ -616,7 +652,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
@@ -624,7 +664,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -632,7 +676,11 @@
           <t>Ian</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bag 1 </t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
@@ -640,7 +688,11 @@
           <t xml:space="preserve">Ian </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bag 1 </t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -659,7 +711,11 @@
           <t>Ian</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
@@ -667,7 +723,11 @@
           <t xml:space="preserve">Ian </t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
@@ -675,7 +735,11 @@
           <t>Ian</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bag 1 </t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -683,7 +747,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 3</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
@@ -691,7 +759,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 3</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -4147,10 +4147,14 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>Anamaria</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1st Financial</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
@@ -4194,7 +4198,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4241,15 +4245,10 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4289,10 +4288,15 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
@@ -4572,7 +4576,8 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -1935,7 +1935,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -2683,7 +2683,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2734,10 +2734,14 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3849,7 +3849,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
+          <t>4:00 AM MEET AT S RACINE COURT (HWYS 43 &amp; Y)</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3888,7 +3888,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>DARIEN CORNER MART</t>
+          <t>SULLIVAN'S FOODS #279, STOCKTON</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>101 W. BELOIT ST</t>
+          <t>103 W NORTH AVE</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/HdtENWJTJYvu2nF69</t>
+          <t>https://goo.gl/maps/qfCDC9wyh9GVdu7w7</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Wht Camry, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4211,9 +4211,22 @@
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -4258,8 +4271,16 @@
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -4306,13 +4327,21 @@
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>4:00 AM MEET AT S RACINE COURT (HWYS 43 &amp; Y)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -4353,13 +4382,21 @@
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -4408,13 +4445,21 @@
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -4452,11 +4497,7 @@
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>SULLIVAN'S FOODS #279, STOCKTON</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -4495,11 +4536,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>103 W NORTH AVE</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -4544,7 +4581,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qfCDC9wyh9GVdu7w7</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4590,7 +4627,11 @@
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -4620,21 +4661,9 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -4663,22 +4692,9 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -4707,16 +4723,8 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -4742,21 +4750,9 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -4793,21 +4789,9 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -4840,21 +4824,9 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -4913,95 +4885,6 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -708,7 +708,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t xml:space="preserve">Ian </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -3432,11 +3432,7 @@
           <t>4)</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>

--- a/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
+++ b/12-14-25 to 12-20-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2204,8 +2204,16 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2248,8 +2256,16 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2292,11 +2308,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2339,11 +2351,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2400,7 +2408,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2451,7 +2459,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>BASU'S STORES</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2502,7 +2510,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>KEWASKUM CORNER MART CITGO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2557,7 +2565,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>516 MAIN STREET</t>
+          <t>BASU'S STORES</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2596,7 +2604,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AfKW7Na2ZrS2</t>
+          <t>KEWASKUM CORNER MART CITGO</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2648,7 +2656,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>516 MAIN STREET</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2699,7 +2707,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/AfKW7Na2ZrS2</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2754,7 +2762,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>THIENSVILLE BP-S MAIN ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2809,7 +2817,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>246 S MAIN ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2848,7 +2856,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/eboSkkf65XbEHSde7</t>
+          <t>THIENSVILLE BP-S MAIN ST</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2899,7 +2907,11 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>246 S MAIN ST</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -2941,22 +2953,13 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/eboSkkf65XbEHSde7</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3006,16 +3009,8 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3074,9 +3069,22 @@
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3113,8 +3121,16 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3153,11 +3169,7 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3204,11 +3216,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3245,7 +3253,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3297,7 +3305,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>BASU'S STORES</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3348,7 +3356,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>WEST BEND BP-E WASHINGTON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3399,7 +3407,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>2825 E WASHINGTON ST</t>
+          <t>BASU'S STORES</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3446,7 +3454,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/svNqx1doa3HXh1Uz7</t>
+          <t>WEST BEND BP-E WASHINGTON</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3485,7 +3493,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW </t>
+          <t>2825 E WASHINGTON ST</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3537,7 +3545,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://maps.app.goo.gl/svNqx1doa3HXh1Uz7</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3589,7 +3597,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>WEST BEND UNIVERSITY MOBIL-W WASHINGTON</t>
+          <t xml:space="preserve">TO FOLLOW </t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3636,7 +3644,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>2333 W WASHINGTON ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3691,7 +3699,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ehzxaWcXwcWdENZ89</t>
+          <t>WEST BEND UNIVERSITY MOBIL-W WASHINGTON</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -3737,7 +3745,11 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>2333 W WASHINGTON ST</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -3767,22 +3779,13 @@
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/ehzxaWcXwcWdENZ89</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -3815,16 +3818,8 @@
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3862,9 +3857,22 @@
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3901,8 +3909,16 @@
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -3937,11 +3953,7 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -3989,11 +4001,7 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -4038,7 +4046,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION CEDARBURG LLC</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4081,7 +4089,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>W62 N174 WASHINGTON AVE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4132,7 +4140,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
+          <t>DHILLON'S STATION CEDARBURG LLC</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4185,7 +4193,11 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>W62 N174 WASHINGTON AVE</t>
+        </is>
+      </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
@@ -4232,21 +4244,13 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
@@ -4287,16 +4291,8 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
@@ -4349,15 +4345,19 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
@@ -4404,19 +4404,15 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
@@ -4465,8 +4461,16 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
@@ -4504,9 +4508,21 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
     </row>
@@ -4544,11 +4560,7 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -4591,11 +4603,7 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
@@ -4641,7 +4649,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -4672,7 +4680,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -4703,7 +4711,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
@@ -4732,7 +4740,11 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>1185 N PORT WASHINGTON RD</t>
+        </is>
+      </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
@@ -4758,21 +4770,13 @@
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
     </row>
@@ -4797,16 +4801,8 @@
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
@@ -4834,15 +4830,19 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
     </row>
@@ -4869,17 +4869,87 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
